--- a/static/media/new.xlsx
+++ b/static/media/new.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="原始工單" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -48,7 +48,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,96 +56,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -226,20 +165,20 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
-      <col>7</col>
-      <colOff>352425</colOff>
-      <row>2</row>
-      <rowOff>762000</rowOff>
+      <col>3</col>
+      <colOff>438151</colOff>
+      <row>0</row>
+      <rowOff>104776</rowOff>
     </from>
     <to>
-      <col>8</col>
-      <colOff>533400</colOff>
-      <row>2</row>
-      <rowOff>1819275</rowOff>
+      <col>6</col>
+      <colOff>600076</colOff>
+      <row>0</row>
+      <rowOff>846222</rowOff>
     </to>
     <pic>
       <nvPicPr>
-        <cNvPr id="3" name="圖片 2"/>
+        <cNvPr id="6" name="圖片 5"/>
         <cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </cNvPicPr>
@@ -252,90 +191,8 @@
       </blipFill>
       <spPr>
         <a:xfrm>
-          <a:off x="5029200" y="1323975"/>
-          <a:ext cx="1057275" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>7</col>
-      <colOff>352425</colOff>
-      <row>3</row>
-      <rowOff>704850</rowOff>
-    </from>
-    <to>
-      <col>8</col>
-      <colOff>533400</colOff>
-      <row>3</row>
-      <rowOff>1762125</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="圖片 3"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="3800475"/>
-          <a:ext cx="1057275" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>7</col>
-      <colOff>352425</colOff>
-      <row>4</row>
-      <rowOff>685800</rowOff>
-    </from>
-    <to>
-      <col>8</col>
-      <colOff>533400</colOff>
-      <row>4</row>
-      <rowOff>1743075</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="圖片 4"/>
-        <cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="6162675"/>
-          <a:ext cx="1057275" cy="1057275"/>
+          <a:off x="2495551" y="104776"/>
+          <a:ext cx="1619250" cy="741446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <avLst/>
@@ -351,17 +208,42 @@
     <from>
       <col>7</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>3</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="1143000" cy="1143000"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -679,193 +561,129 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1048576"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
   <cols>
-    <col width="9" customWidth="1" style="1" min="1" max="1"/>
-    <col width="7.25" customWidth="1" style="6" min="4" max="5"/>
-    <col width="4.625" customWidth="1" style="6" min="6" max="6"/>
-    <col width="16.875" customWidth="1" style="6" min="7" max="7"/>
-    <col width="11.5" customWidth="1" style="1" min="8" max="9"/>
+    <col width="9" customWidth="1" style="4" min="1" max="1"/>
+    <col width="7.26953125" customWidth="1" style="7" min="4" max="5"/>
+    <col width="4.6328125" customWidth="1" style="7" min="6" max="6"/>
+    <col width="16.90625" customWidth="1" style="7" min="7" max="7"/>
+    <col width="11.453125" customWidth="1" style="4" min="8" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" s="6">
-      <c r="A1" s="4" t="inlineStr">
+    <row r="1" ht="72.75" customHeight="1" s="7">
+      <c r="A1" s="4" t="n"/>
+    </row>
+    <row r="2" ht="27.75" customHeight="1" s="7">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>怡振電機-AI技術部混料堆疊工單</t>
         </is>
       </c>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="7" t="n"/>
-      <c r="I1" s="8" t="n"/>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>序號</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>訂單名稱</t>
         </is>
       </c>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>訂單內容</t>
-        </is>
-      </c>
-      <c r="E2" s="7" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>堆疊工單</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>時間</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>工單QR-Code</t>
         </is>
       </c>
-      <c r="I2" s="8" t="n"/>
     </row>
-    <row r="3" ht="199.5" customHeight="1" s="6">
-      <c r="A3" s="4" t="n">
+    <row r="4" ht="199.5" customHeight="1" s="7">
+      <c r="A4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>box_data_57</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n"/>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>1.#7A_5
-2.#9_4
-3.#16A_5
-4.#18A_5
-5.#13_5
-6.#20_5
-7.#22_5
-8.#26_5
-9.#29_5
-10.#33_4
-11.#35_3</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="n"/>
-      <c r="F3" s="8" t="n"/>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>2023年9月15日
-下午 05:09:42</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="8" t="n"/>
+      <c r="B4" s="6" t="inlineStr">
+        <is>
+          <t>box_data_4</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16A 35 26 13
+18A 9 20 29
+22 7A 33 </t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>2023/09/25
+20:25</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n"/>
     </row>
-    <row r="4" ht="187.5" customHeight="1" s="6">
-      <c r="A4" s="4" t="n">
+    <row r="5" ht="187.5" customHeight="1" s="7">
+      <c r="A5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>box_data_58</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>1.#16A_1
-2.#33_1</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="n"/>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>2023年9月15日
-下午 05:10:42</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="8" t="n"/>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>box_data_3</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 9 9 35
+7A 35 22 9
+13 29 29 18A
+9 9 13 26
+29 18A 22 13
+33 29 7A 26
+13 22 16A 7A
+18A 33 18A 29
+7A 16A 20 16A
+33 20 </t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
+        <is>
+          <t>2023/09/25
+20:15</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="n"/>
     </row>
-    <row r="5" ht="187.5" customHeight="1" s="6">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>box_data_59</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="n"/>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>1.#18A_1</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>2023年9月15日
-下午 05:11:42</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="195" customHeight="1" s="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>box_data_59</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="inlineStr">
-        <is>
-          <t>1.#7A_5
-2.#9_4
-3.#16A_5
-4.#18A_5
-5.#13_5</t>
-        </is>
-      </c>
-      <c r="G6" s="9" t="inlineStr">
-        <is>
-          <t>2023年9月15日
-下午 05:11:42</t>
-        </is>
-      </c>
-      <c r="H6" s="9" t="n"/>
+    <row r="6" ht="195" customHeight="1" s="7">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D2:F2"/>
+  <mergeCells count="14">
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B4:C4"/>
